--- a/data/trans_orig/P1401-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>7899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3714</v>
+        <v>3151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15238</v>
+        <v>15514</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007566356858554114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003557804818760263</v>
+        <v>0.003018616331212101</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01459654900569022</v>
+        <v>0.01486092847055132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>24529</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15931</v>
+        <v>15968</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37768</v>
+        <v>37436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02192712506109476</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01424092484665872</v>
+        <v>0.01427443660269682</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03376206781997299</v>
+        <v>0.033465580757611</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -785,19 +785,19 @@
         <v>32428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22035</v>
+        <v>22802</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45642</v>
+        <v>46656</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01499482573129343</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01018911181954653</v>
+        <v>0.01054379636185202</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02110541245171126</v>
+        <v>0.02157436112014322</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1036036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1028697</v>
+        <v>1028421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1040221</v>
+        <v>1040784</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9924336431414459</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9854034509943097</v>
+        <v>0.9851390715294489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9964421951812397</v>
+        <v>0.9969813836687882</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1009</v>
@@ -835,19 +835,19 @@
         <v>1094124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1080885</v>
+        <v>1081217</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1102722</v>
+        <v>1102685</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9780728749389053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.966237932180027</v>
+        <v>0.966534419242389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9857590751533413</v>
+        <v>0.9857255633973032</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1979</v>
@@ -856,19 +856,19 @@
         <v>2130160</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2116946</v>
+        <v>2115932</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2140553</v>
+        <v>2139786</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9850051742687066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9788945875482886</v>
+        <v>0.9784256388798568</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9898108881804535</v>
+        <v>0.989456203638148</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>14905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8181</v>
+        <v>7994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27347</v>
+        <v>27068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01525437665808806</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008372665541171347</v>
+        <v>0.008181072286839543</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02798878842736746</v>
+        <v>0.02770313578829951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -981,19 +981,19 @@
         <v>24270</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15484</v>
+        <v>14769</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36389</v>
+        <v>36961</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02221886287783295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01417538665303941</v>
+        <v>0.01352044489288849</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03331372401804211</v>
+        <v>0.0338365542783019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1002,19 +1002,19 @@
         <v>39175</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26805</v>
+        <v>27908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54759</v>
+        <v>55850</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01893056145878234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01295301659324085</v>
+        <v>0.01348588228239205</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02646135578298022</v>
+        <v>0.0269885975705223</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>962168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>949726</v>
+        <v>950005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>968892</v>
+        <v>969079</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.984745623341912</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9720112115726324</v>
+        <v>0.9722968642117003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9916273344588287</v>
+        <v>0.9918189277131605</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>998</v>
@@ -1052,19 +1052,19 @@
         <v>1068057</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1055938</v>
+        <v>1055366</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1076843</v>
+        <v>1077558</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9777811371221671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9666862759819577</v>
+        <v>0.9661634457216981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9858246133469605</v>
+        <v>0.9864795551071115</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1910</v>
@@ -1073,19 +1073,19 @@
         <v>2030225</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2014641</v>
+        <v>2013550</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2042595</v>
+        <v>2041492</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9810694385412176</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9735386442170199</v>
+        <v>0.9730114024294777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9870469834067591</v>
+        <v>0.986514117717608</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>12318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7016</v>
+        <v>6290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21246</v>
+        <v>20398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01391716440557845</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007927066092215652</v>
+        <v>0.007106677115100537</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02400401182673062</v>
+        <v>0.02304505619269304</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1198,19 +1198,19 @@
         <v>11329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5944</v>
+        <v>5823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19460</v>
+        <v>18843</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01293532686139773</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006786736953687793</v>
+        <v>0.006649296881013515</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0222196807414312</v>
+        <v>0.02151542063630451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1219,19 +1219,19 @@
         <v>23647</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15506</v>
+        <v>15597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34397</v>
+        <v>36049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01342884373890516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00880562016074371</v>
+        <v>0.00885708116491446</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01953343996649158</v>
+        <v>0.02047160522025654</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>872797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>863869</v>
+        <v>864717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>878099</v>
+        <v>878825</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9860828355944216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9759959881732695</v>
+        <v>0.9769549438073069</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9920729339077844</v>
+        <v>0.9928933228848994</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>810</v>
@@ -1269,19 +1269,19 @@
         <v>864467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>856336</v>
+        <v>856953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>869852</v>
+        <v>869973</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9870646731386022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9777803192585691</v>
+        <v>0.9784845793636955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9932132630463122</v>
+        <v>0.9933507031189865</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1628</v>
@@ -1290,19 +1290,19 @@
         <v>1737264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1726514</v>
+        <v>1724862</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1745405</v>
+        <v>1745314</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9865711562610948</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9804665600335084</v>
+        <v>0.9795283947797434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9911943798392563</v>
+        <v>0.9911429188350855</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>4043</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9931</v>
+        <v>10071</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008038220913366451</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002060856438007748</v>
+        <v>0.002067407244160189</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01974328859620659</v>
+        <v>0.0200207829080587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1415,19 +1415,19 @@
         <v>10388</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5069</v>
+        <v>5226</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17882</v>
+        <v>18312</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02294469363460347</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01119647486993482</v>
+        <v>0.01154400267871997</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03949830105252635</v>
+        <v>0.04044838262748068</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1436,19 +1436,19 @@
         <v>14431</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8151</v>
+        <v>7987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22424</v>
+        <v>22808</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01509930635129163</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00852843387904376</v>
+        <v>0.008356676190142047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02346180124890357</v>
+        <v>0.02386337723032824</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>498980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493092</v>
+        <v>492952</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501986</v>
+        <v>501983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9919617790866335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9802567114037936</v>
+        <v>0.9799792170919414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9979391435619922</v>
+        <v>0.9979325927558398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -1486,19 +1486,19 @@
         <v>442348</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>434854</v>
+        <v>434424</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>447667</v>
+        <v>447510</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9770553063653965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9605016989474745</v>
+        <v>0.9595516173725191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9888035251300653</v>
+        <v>0.98845599732128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>859</v>
@@ -1507,19 +1507,19 @@
         <v>941327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>933334</v>
+        <v>932950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>947607</v>
+        <v>947771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9849006936487084</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9765381987510968</v>
+        <v>0.9761366227696722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9914715661209563</v>
+        <v>0.991643323809858</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>39165</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28115</v>
+        <v>27766</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55292</v>
+        <v>54409</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01148825183579368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008246983901386893</v>
+        <v>0.008144626313146559</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01621859316192737</v>
+        <v>0.01595957411826586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -1632,19 +1632,19 @@
         <v>70516</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55385</v>
+        <v>54229</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91060</v>
+        <v>87761</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01992243686123647</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01564768890045472</v>
+        <v>0.01532091153118713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02572671133195831</v>
+        <v>0.02479477138614508</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -1653,19 +1653,19 @@
         <v>109681</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90146</v>
+        <v>89966</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>134746</v>
+        <v>132268</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01578446252711706</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01297321589104122</v>
+        <v>0.0129471864448234</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01939163064587337</v>
+        <v>0.01903501825940428</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3369980</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3353853</v>
+        <v>3354736</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3381030</v>
+        <v>3381379</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9885117481642063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9837814068380726</v>
+        <v>0.9840404258817341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9917530160986131</v>
+        <v>0.9918553736868534</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3219</v>
@@ -1703,19 +1703,19 @@
         <v>3468995</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3448451</v>
+        <v>3451750</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3484126</v>
+        <v>3485282</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9800775631387635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9742732886680417</v>
+        <v>0.9752052286138551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9843523110995454</v>
+        <v>0.9846790884688129</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6376</v>
@@ -1724,19 +1724,19 @@
         <v>6838976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6813911</v>
+        <v>6816389</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6858511</v>
+        <v>6858691</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9842155374728829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9806083693541265</v>
+        <v>0.9809649817405954</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9870267841089587</v>
+        <v>0.9870528135551766</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>11896</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6664</v>
+        <v>6431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20616</v>
+        <v>19626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01054591331680507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00590754362489289</v>
+        <v>0.005701010273974961</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.018276873931024</v>
+        <v>0.0173989170376687</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2089,19 +2089,19 @@
         <v>13795</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7718</v>
+        <v>7337</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24271</v>
+        <v>23671</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01095202065850912</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006127727646874108</v>
+        <v>0.005824670363312794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01926964081912949</v>
+        <v>0.01879289200807329</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2110,19 +2110,19 @@
         <v>25690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16379</v>
+        <v>17532</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38453</v>
+        <v>37065</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01076015601833135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00686020518148399</v>
+        <v>0.007343117245996121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01610560356561263</v>
+        <v>0.01552415867849552</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1116101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1107381</v>
+        <v>1108371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1121333</v>
+        <v>1121566</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9894540866831949</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9817231260689762</v>
+        <v>0.9826010829623312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9940924563751072</v>
+        <v>0.994298989726025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1176</v>
@@ -2160,19 +2160,19 @@
         <v>1245766</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1235290</v>
+        <v>1235890</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1251843</v>
+        <v>1252224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9890479793414909</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.980730359180871</v>
+        <v>0.9812071079919279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9938722723531263</v>
+        <v>0.9941753296366874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2230</v>
@@ -2181,19 +2181,19 @@
         <v>2361868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2349105</v>
+        <v>2350493</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2371179</v>
+        <v>2370026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9892398439816686</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9838943964343871</v>
+        <v>0.984475841321505</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9931397948185159</v>
+        <v>0.9926568827540039</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>5498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1883</v>
+        <v>2397</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11931</v>
+        <v>11008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006049706086640481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002072312635750655</v>
+        <v>0.002637080870809227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01312788036385837</v>
+        <v>0.0121122008002161</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -2306,19 +2306,19 @@
         <v>23549</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15124</v>
+        <v>14419</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35480</v>
+        <v>35720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02339723150266983</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01502663411601457</v>
+        <v>0.0143260374035888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03525182622732861</v>
+        <v>0.03549045163171202</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -2327,19 +2327,19 @@
         <v>29047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19772</v>
+        <v>19606</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43176</v>
+        <v>41404</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01516569580135222</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01032327977124606</v>
+        <v>0.01023628191233454</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02254269400034818</v>
+        <v>0.02161730904437625</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>903327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896894</v>
+        <v>897817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>906942</v>
+        <v>906428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9939502939133595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9868721196361441</v>
+        <v>0.987887799199784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979276873642496</v>
+        <v>0.9973629191291928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>930</v>
@@ -2377,19 +2377,19 @@
         <v>982926</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>970995</v>
+        <v>970755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>991351</v>
+        <v>992056</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9766027684973302</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9647481737726713</v>
+        <v>0.964509548368288</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9849733658839854</v>
+        <v>0.9856739625964112</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1805</v>
@@ -2398,19 +2398,19 @@
         <v>1886253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1872124</v>
+        <v>1873896</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1895528</v>
+        <v>1895694</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9848343041986478</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9774573059996519</v>
+        <v>0.9783826909556244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.989676720228754</v>
+        <v>0.9897637180876655</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>8840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4050</v>
+        <v>3957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16832</v>
+        <v>16146</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01073169290910233</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004916609843711716</v>
+        <v>0.004804017553281142</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02043347300537007</v>
+        <v>0.0196002649311507</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2523,19 +2523,19 @@
         <v>19852</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12091</v>
+        <v>12176</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32020</v>
+        <v>32533</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02574578651606691</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01568057087038539</v>
+        <v>0.0157916085591171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0415270264267396</v>
+        <v>0.04219311436828349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -2544,19 +2544,19 @@
         <v>28692</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19582</v>
+        <v>19130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41358</v>
+        <v>40820</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01799067012165498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01227867235350571</v>
+        <v>0.01199502684511999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02593247772029439</v>
+        <v>0.02559526628934967</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>814919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>806927</v>
+        <v>807613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>819709</v>
+        <v>819802</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9892683070908976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.97956652699463</v>
+        <v>0.9803997350688494</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9950833901562883</v>
+        <v>0.9951959824467189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>710</v>
@@ -2594,19 +2594,19 @@
         <v>751207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>739039</v>
+        <v>738526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>758968</v>
+        <v>758883</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.974254213483933</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9584729735732603</v>
+        <v>0.9578068856317167</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9843194291296146</v>
+        <v>0.9842083914408835</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1488</v>
@@ -2615,19 +2615,19 @@
         <v>1566126</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1553460</v>
+        <v>1553998</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1575236</v>
+        <v>1575688</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.982009329878345</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9740675222797058</v>
+        <v>0.9744047337106504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9877213276464945</v>
+        <v>0.9880049731548805</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>3500</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8781</v>
+        <v>8034</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006907280855931529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001769609185110299</v>
+        <v>0.001771371901069038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01732935582819286</v>
+        <v>0.01585591310703392</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -2740,19 +2740,19 @@
         <v>13955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7580</v>
+        <v>7245</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24062</v>
+        <v>23950</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02849795052541601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0154784328307</v>
+        <v>0.01479542117166228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04913682963225374</v>
+        <v>0.04890869731729256</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -2761,19 +2761,19 @@
         <v>17455</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10060</v>
+        <v>10497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27518</v>
+        <v>29194</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01751839536242968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01009640386534561</v>
+        <v>0.01053499374975057</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02761775977681652</v>
+        <v>0.02929918512529551</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>503201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>497920</v>
+        <v>498667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505804</v>
+        <v>505803</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9930927191440685</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9826706441718072</v>
+        <v>0.9841440868929663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982303908148897</v>
+        <v>0.9982286280989309</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>443</v>
@@ -2811,19 +2811,19 @@
         <v>475743</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>465636</v>
+        <v>465748</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>482118</v>
+        <v>482453</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.971502049474584</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9508631703677464</v>
+        <v>0.9510913026827076</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9845215671693001</v>
+        <v>0.9852045788283379</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>910</v>
@@ -2832,19 +2832,19 @@
         <v>978943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>968880</v>
+        <v>967204</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>986338</v>
+        <v>985901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9824816046375703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9723822402231834</v>
+        <v>0.9707008148747045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9899035961346543</v>
+        <v>0.9894650062502494</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>29734</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21315</v>
+        <v>20877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42374</v>
+        <v>41398</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008830308626479565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00633011138010454</v>
+        <v>0.006199949128055903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01258393226215187</v>
+        <v>0.01229407202024447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -2957,19 +2957,19 @@
         <v>71150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54566</v>
+        <v>54908</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90517</v>
+        <v>92623</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02017424180113217</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01547181950982074</v>
+        <v>0.01556889967656224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02566547008231911</v>
+        <v>0.02626257238363906</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -2978,19 +2978,19 @@
         <v>100885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82091</v>
+        <v>83172</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>124351</v>
+        <v>123112</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01463350906845746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01190746939176719</v>
+        <v>0.01206429545804773</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0180373357971781</v>
+        <v>0.01785772557869489</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3337548</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3324908</v>
+        <v>3325884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3345967</v>
+        <v>3346405</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9911696913735204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9874160677378481</v>
+        <v>0.9877059279797554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9936698886198954</v>
+        <v>0.9938000508719441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3259</v>
@@ -3028,19 +3028,19 @@
         <v>3455642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3436275</v>
+        <v>3434169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3472226</v>
+        <v>3471884</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9798257581988679</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9743345299176809</v>
+        <v>0.9737374276163608</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9845281804901793</v>
+        <v>0.9844311003234377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6433</v>
@@ -3049,19 +3049,19 @@
         <v>6793190</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6769724</v>
+        <v>6770963</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6811984</v>
+        <v>6810903</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9853664909315425</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9819626642028219</v>
+        <v>0.9821422744213049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9880925306082328</v>
+        <v>0.9879357045419521</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>11019</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6093</v>
+        <v>6080</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19518</v>
+        <v>20403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02225343791977904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01230439275604411</v>
+        <v>0.01227896840860869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03941684695704865</v>
+        <v>0.04120570587970236</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -3414,19 +3414,19 @@
         <v>11909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7373</v>
+        <v>7851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18093</v>
+        <v>18962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01916105122400191</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01186297114947858</v>
+        <v>0.01263156058369159</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02911074461537439</v>
+        <v>0.03050907818388211</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -3435,19 +3435,19 @@
         <v>22928</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15994</v>
+        <v>16184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32414</v>
+        <v>32381</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02053228606781968</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01432251454063626</v>
+        <v>0.01449272009280452</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0290271326447714</v>
+        <v>0.02899776825840681</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>484142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475643</v>
+        <v>474758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489068</v>
+        <v>489081</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.977746562080221</v>
+        <v>0.9777465620802209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9605831530429512</v>
+        <v>0.9587942941202976</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9876956072439559</v>
+        <v>0.9877210315913915</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>836</v>
@@ -3485,19 +3485,19 @@
         <v>609609</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>603425</v>
+        <v>602556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>614145</v>
+        <v>613667</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9808389487759981</v>
+        <v>0.980838948775998</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9708892553846257</v>
+        <v>0.9694909218161163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9881370288505216</v>
+        <v>0.9873684394163085</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1275</v>
@@ -3506,19 +3506,19 @@
         <v>1093750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1084264</v>
+        <v>1084297</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1100684</v>
+        <v>1100494</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9794677139321802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9709728673552287</v>
+        <v>0.9710022317415931</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9856774854593635</v>
+        <v>0.9855072799071956</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>20754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13989</v>
+        <v>13802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30513</v>
+        <v>29404</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02164113236267379</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01458701346514424</v>
+        <v>0.01439170360160513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03181656201341215</v>
+        <v>0.030660623558917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3631,19 +3631,19 @@
         <v>27640</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19904</v>
+        <v>20565</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35856</v>
+        <v>37040</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02478588214761622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01784907121815674</v>
+        <v>0.01844131081757774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03215341795554249</v>
+        <v>0.0332158997551262</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -3652,19 +3652,19 @@
         <v>48394</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38037</v>
+        <v>37942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60239</v>
+        <v>60296</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02333186073886971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01833861848617169</v>
+        <v>0.01829287894611266</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02904235961317609</v>
+        <v>0.02906993652527054</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>938265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>928506</v>
+        <v>929615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>945030</v>
+        <v>945217</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.978358867637326</v>
+        <v>0.9783588676373262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9681834379865879</v>
+        <v>0.9693393764410829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9854129865348558</v>
+        <v>0.9856082963983949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1561</v>
@@ -3702,19 +3702,19 @@
         <v>1087502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1079286</v>
+        <v>1078102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1095238</v>
+        <v>1094577</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9752141178523839</v>
+        <v>0.9752141178523837</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9678465820444583</v>
+        <v>0.9667841002448739</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9821509287818434</v>
+        <v>0.9815586891824223</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2442</v>
@@ -3723,19 +3723,19 @@
         <v>2025767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2013922</v>
+        <v>2013865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2036124</v>
+        <v>2036219</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9766681392611301</v>
+        <v>0.9766681392611302</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9709576403868239</v>
+        <v>0.9709300634747293</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9816613815138278</v>
+        <v>0.9817071210538874</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>20196</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13484</v>
+        <v>13566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30930</v>
+        <v>30156</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01931944204199112</v>
+        <v>0.01931944204199111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01289862493799215</v>
+        <v>0.01297734387848871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.029587900434813</v>
+        <v>0.02884762225538849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -3848,19 +3848,19 @@
         <v>21595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15438</v>
+        <v>15495</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29417</v>
+        <v>30145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02064832336019698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0147613410208231</v>
+        <v>0.01481551540686226</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02812673151901336</v>
+        <v>0.02882351954094778</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -3869,19 +3869,19 @@
         <v>41791</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32392</v>
+        <v>32725</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53656</v>
+        <v>54001</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01998404440929902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01548970112589985</v>
+        <v>0.01564865601982561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02565785947734992</v>
+        <v>0.02582284016619734</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>1025151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1014417</v>
+        <v>1015191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1031863</v>
+        <v>1031781</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9806805579580088</v>
+        <v>0.9806805579580087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9704120995651871</v>
+        <v>0.9711523777446122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9871013750620079</v>
+        <v>0.9870226561215115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1477</v>
@@ -3919,19 +3919,19 @@
         <v>1024261</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1016439</v>
+        <v>1015711</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1030418</v>
+        <v>1030361</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9793516766398032</v>
+        <v>0.9793516766398033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9718732684809874</v>
+        <v>0.9711764804590522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9852386589791768</v>
+        <v>0.9851844845931379</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2478</v>
@@ -3940,19 +3940,19 @@
         <v>2049412</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2037547</v>
+        <v>2037202</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2058811</v>
+        <v>2058478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.980015955590701</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9743421405226499</v>
+        <v>0.9741771598338025</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9845102988741</v>
+        <v>0.9843513439801742</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>22539</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14290</v>
+        <v>14862</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32368</v>
+        <v>33391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02311670263242708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0146566728523469</v>
+        <v>0.01524365714480944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03319868770456611</v>
+        <v>0.03424753194429325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -4065,19 +4065,19 @@
         <v>23313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17618</v>
+        <v>17902</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31248</v>
+        <v>32040</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02566761327181087</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01939762030079893</v>
+        <v>0.01970998617079365</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03440425908400733</v>
+        <v>0.03527605492811232</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -4086,19 +4086,19 @@
         <v>45851</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35255</v>
+        <v>36233</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58033</v>
+        <v>59056</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02434695912463243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01872049430551329</v>
+        <v>0.01923962227840581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03081538672139354</v>
+        <v>0.03135890945768811</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>952449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>942620</v>
+        <v>941597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>960698</v>
+        <v>960126</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9768832973675731</v>
+        <v>0.9768832973675727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.966801312295434</v>
+        <v>0.9657524680557066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9853433271476532</v>
+        <v>0.9847563428551905</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1276</v>
@@ -4136,19 +4136,19 @@
         <v>884938</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>877003</v>
+        <v>876211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>890633</v>
+        <v>890349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9743323867281891</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9655957409159927</v>
+        <v>0.9647239450718875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9806023796992012</v>
+        <v>0.9802900138292061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2194</v>
@@ -4157,19 +4157,19 @@
         <v>1837387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1825205</v>
+        <v>1824182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1847983</v>
+        <v>1847005</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9756530408753674</v>
+        <v>0.9756530408753676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9691846132786065</v>
+        <v>0.9686410905423121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9812795056944863</v>
+        <v>0.9807603777215943</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>74507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60852</v>
+        <v>59942</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90339</v>
+        <v>91468</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02144394805481066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0175137948922952</v>
+        <v>0.01725182969297174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02600056612875111</v>
+        <v>0.02632527399699397</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>147</v>
@@ -4282,19 +4282,19 @@
         <v>84457</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72690</v>
+        <v>72173</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100496</v>
+        <v>99983</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02288319081711698</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01969508636942766</v>
+        <v>0.0195548955472522</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02722895843959771</v>
+        <v>0.02708993118474152</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -4303,19 +4303,19 @@
         <v>158964</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>138946</v>
+        <v>140787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>181863</v>
+        <v>183157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02218528799724549</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01939163232041725</v>
+        <v>0.0196484715905696</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02538114358721686</v>
+        <v>0.02556175183050417</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3400007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3384175</v>
+        <v>3383046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3413662</v>
+        <v>3414572</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9785560519451894</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.973999433871249</v>
+        <v>0.9736747260030062</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9824862051077048</v>
+        <v>0.9827481703070283</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5150</v>
@@ -4353,19 +4353,19 @@
         <v>3606309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3590270</v>
+        <v>3590783</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3618076</v>
+        <v>3618593</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.977116809182883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9727710415604024</v>
+        <v>0.9729100688152584</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9803049136305723</v>
+        <v>0.9804451044527478</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8389</v>
@@ -4374,19 +4374,19 @@
         <v>7006317</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6983418</v>
+        <v>6982124</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7026335</v>
+        <v>7024494</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9778147120027546</v>
+        <v>0.9778147120027545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9746188564127828</v>
+        <v>0.9744382481694958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9806083676795827</v>
+        <v>0.9803515284094303</v>
       </c>
     </row>
     <row r="18">
